--- a/Huan/Web-job-data/Vietnamworks.xlsx
+++ b/Huan/Web-job-data/Vietnamworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nganh\Downloads\MATERIALS\DataAdvising\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh Hoang\source\repos\Teamb_Scraping_data\Huan\Web-job-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAC180E-D9CB-4724-BE99-87B4A7C8BCE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE4DB1F-4EED-45BE-BED2-D8B9772F8CFC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="10238" xr2:uid="{6BCF2880-6A1B-4F35-8265-64EE3F45245E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{6BCF2880-6A1B-4F35-8265-64EE3F45245E}"/>
   </bookViews>
   <sheets>
     <sheet name="Vietnamworks-DS" sheetId="5" r:id="rId1"/>
@@ -24,16 +24,10 @@
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Vietnamworks-DE'!$A$2:$E$66</definedName>
     <definedName name="ExternalData_3" localSheetId="0" hidden="1">'Vietnamworks-DS'!$A$2:$E$101</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -8669,17 +8663,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8688,30 +8678,7 @@
   </cellStyles>
   <dxfs count="22">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -8757,6 +8724,29 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8840,14 +8830,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2A8BBA3D-9378-432C-B8BD-40521FFD02E5}" name="Vietnamwork_DA__3" displayName="Vietnamwork_DA__3" ref="A2:E101" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2A8BBA3D-9378-432C-B8BD-40521FFD02E5}" name="Vietnamwork_DA__3" displayName="Vietnamwork_DA__3" ref="A2:E101" tableType="queryTable" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A2:E101" xr:uid="{50DDB231-4781-464B-A6D6-712C3717C4CB}"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{52337A3A-4F18-4745-9053-3D098FD93998}" uniqueName="2" name="url" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{FFC70DB9-E9D3-482E-A438-EC5BAE07A558}" uniqueName="3" name="title" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{727B155D-E897-4B5F-8917-2495DDE9027D}" uniqueName="4" name="company" queryTableFieldId="4" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{7472AEA8-D89B-4351-A52C-57B387020E7C}" uniqueName="5" name="description" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{F62C25B6-1EC7-4A6A-951A-D4B9AC4261B7}" uniqueName="6" name="requirement" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{52337A3A-4F18-4745-9053-3D098FD93998}" uniqueName="2" name="url" queryTableFieldId="2" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{FFC70DB9-E9D3-482E-A438-EC5BAE07A558}" uniqueName="3" name="title" queryTableFieldId="3" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{727B155D-E897-4B5F-8917-2495DDE9027D}" uniqueName="4" name="company" queryTableFieldId="4" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{7472AEA8-D89B-4351-A52C-57B387020E7C}" uniqueName="5" name="description" queryTableFieldId="5" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{F62C25B6-1EC7-4A6A-951A-D4B9AC4261B7}" uniqueName="6" name="requirement" queryTableFieldId="6" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8857,11 +8847,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A74DD0F0-05C5-4A93-BEC2-43132E92900A}" name="Vietnamwork_DA__4" displayName="Vietnamwork_DA__4" ref="A2:E101" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A2:E101" xr:uid="{CE5C55FA-C4E1-448D-A9B2-31FC22871450}"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{9F5A4543-48F7-4A69-936C-E9F4C3478EA2}" uniqueName="2" name="url" queryTableFieldId="2" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{12D4F740-9ABA-4CFD-91A7-AAF1075EFE5B}" uniqueName="3" name="title" queryTableFieldId="3" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{3AB02F61-2EE4-4F8C-9BEB-DFE19507F521}" uniqueName="4" name="company" queryTableFieldId="4" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{617C443B-89B1-439D-B4EC-3821E51C4ADE}" uniqueName="5" name="description" queryTableFieldId="5" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{D9427A8E-29A9-4969-BBEF-DAFC019DD928}" uniqueName="6" name="requirement" queryTableFieldId="6" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{9F5A4543-48F7-4A69-936C-E9F4C3478EA2}" uniqueName="2" name="url" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{12D4F740-9ABA-4CFD-91A7-AAF1075EFE5B}" uniqueName="3" name="title" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{3AB02F61-2EE4-4F8C-9BEB-DFE19507F521}" uniqueName="4" name="company" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{617C443B-89B1-439D-B4EC-3821E51C4ADE}" uniqueName="5" name="description" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{D9427A8E-29A9-4969-BBEF-DAFC019DD928}" uniqueName="6" name="requirement" queryTableFieldId="6" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8871,11 +8861,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E8026300-9C09-4CA5-BD7C-3549C2C19CCF}" name="Vietnamwork_DE" displayName="Vietnamwork_DE" ref="A2:E66" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A2:E66" xr:uid="{4F41D35D-F27E-4471-BDA1-244576ECD64A}"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{3C0254C4-E087-4C42-9057-876094F18B89}" uniqueName="2" name="url" queryTableFieldId="2" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{CD4B6B1F-9A33-4A77-8993-8D2C40304EA3}" uniqueName="3" name="title" queryTableFieldId="3" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{FBD048DC-CD7C-4BA4-BA0F-B9DE971CF995}" uniqueName="4" name="company" queryTableFieldId="4" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{07112C58-10CF-4DDD-8799-DDE3DA8C2C52}" uniqueName="5" name="description" queryTableFieldId="5" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{5B28FFF0-C47A-4013-BB84-147B93E0BCA0}" uniqueName="6" name="requirement" queryTableFieldId="6" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{3C0254C4-E087-4C42-9057-876094F18B89}" uniqueName="2" name="url" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{CD4B6B1F-9A33-4A77-8993-8D2C40304EA3}" uniqueName="3" name="title" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{FBD048DC-CD7C-4BA4-BA0F-B9DE971CF995}" uniqueName="4" name="company" queryTableFieldId="4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{07112C58-10CF-4DDD-8799-DDE3DA8C2C52}" uniqueName="5" name="description" queryTableFieldId="5" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{5B28FFF0-C47A-4013-BB84-147B93E0BCA0}" uniqueName="6" name="requirement" queryTableFieldId="6" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8885,11 +8875,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2C85FA9F-96EC-45A2-8463-03D1E0F592C5}" name="Vietnamwork_DE__2" displayName="Vietnamwork_DE__2" ref="A2:E111" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A2:E111" xr:uid="{2B758677-E60A-4E39-840E-920C3B034503}"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{7F95DB3D-B065-40D2-8C36-CC204277E599}" uniqueName="2" name="url" queryTableFieldId="2" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{4055A4B7-82BC-4401-81E2-2205256E6C4C}" uniqueName="3" name="title" queryTableFieldId="3" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{C058BC1C-2F1F-4DF8-8443-EF6B3AC50B4D}" uniqueName="4" name="company" queryTableFieldId="4" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{53A5C1EF-87A8-4878-B2F0-0F41CCD2DA89}" uniqueName="5" name="description" queryTableFieldId="5" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{C30DE71F-83B6-42F4-9307-F94F4967EAF8}" uniqueName="6" name="requirement" queryTableFieldId="6" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{7F95DB3D-B065-40D2-8C36-CC204277E599}" uniqueName="2" name="url" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{4055A4B7-82BC-4401-81E2-2205256E6C4C}" uniqueName="3" name="title" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{C058BC1C-2F1F-4DF8-8443-EF6B3AC50B4D}" uniqueName="4" name="company" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{53A5C1EF-87A8-4878-B2F0-0F41CCD2DA89}" uniqueName="5" name="description" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{C30DE71F-83B6-42F4-9307-F94F4967EAF8}" uniqueName="6" name="requirement" queryTableFieldId="6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9194,1728 +9184,1730 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09C6575-E306-46D5-8B5E-A4F9ED8FEFC9}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="73" zoomScaleNormal="100" zoomScaleSheetLayoutView="73" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="80.53125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.53125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.06640625" style="4"/>
+    <col min="1" max="1" width="26.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="70" style="3" customWidth="1"/>
+    <col min="5" max="5" width="80.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="313.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="228" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="313.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="114" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="399" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="327.75" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="313.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="370.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="313.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="228" x14ac:dyDescent="0.45">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="342" x14ac:dyDescent="0.45">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="384.75" x14ac:dyDescent="0.45">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="171" x14ac:dyDescent="0.45">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="228" x14ac:dyDescent="0.45">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="114" x14ac:dyDescent="0.45">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="327.75" x14ac:dyDescent="0.45">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="313.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="356.25" x14ac:dyDescent="0.45">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="399" x14ac:dyDescent="0.45">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="285" x14ac:dyDescent="0.45">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="356.25" x14ac:dyDescent="0.45">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="171" x14ac:dyDescent="0.45">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="285" x14ac:dyDescent="0.45">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="228" x14ac:dyDescent="0.45">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="327.75" x14ac:dyDescent="0.45">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="228" x14ac:dyDescent="0.45">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="313.5" x14ac:dyDescent="0.45">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="356.25" x14ac:dyDescent="0.45">
-      <c r="A61" s="5" t="s">
+    <row r="61" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="242.25" x14ac:dyDescent="0.45">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A65" s="5" t="s">
+    <row r="65" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="A66" s="5" t="s">
+    <row r="66" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="3" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A67" s="5" t="s">
+    <row r="67" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="228" x14ac:dyDescent="0.45">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="171" x14ac:dyDescent="0.45">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="171" x14ac:dyDescent="0.45">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A71" s="5" t="s">
+    <row r="71" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="3" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="3" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="228" x14ac:dyDescent="0.45">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="356.25" x14ac:dyDescent="0.45">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="171" x14ac:dyDescent="0.45">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A79" s="5" t="s">
+    <row r="79" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="A80" s="5" t="s">
+    <row r="80" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" s="3" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="114" x14ac:dyDescent="0.45">
-      <c r="A81" s="5" t="s">
+    <row r="81" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="228" x14ac:dyDescent="0.45">
-      <c r="A82" s="5" t="s">
+    <row r="82" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A83" s="5" t="s">
+    <row r="83" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E83" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A84" s="5" t="s">
+    <row r="84" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E84" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A85" s="5" t="s">
+    <row r="85" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="A86" s="5" t="s">
+    <row r="86" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E86" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="242.25" x14ac:dyDescent="0.45">
-      <c r="A87" s="5" t="s">
+    <row r="87" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A88" s="5" t="s">
+    <row r="88" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E88" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A89" s="5" t="s">
+    <row r="89" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E89" s="3" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="114" x14ac:dyDescent="0.45">
-      <c r="A90" s="5" t="s">
+    <row r="90" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E90" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
-      <c r="A91" s="5" t="s">
+    <row r="91" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E91" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E92" s="3" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A93" s="5" t="s">
+    <row r="93" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E93" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A94" s="5" t="s">
+    <row r="94" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A95" s="5" t="s">
+    <row r="95" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A96" s="5" t="s">
+    <row r="96" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E96" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A97" s="5" t="s">
+    <row r="97" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A98" s="5" t="s">
+    <row r="98" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="313.5" x14ac:dyDescent="0.45">
-      <c r="A99" s="5" t="s">
+    <row r="99" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E99" s="3" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A100" s="5" t="s">
+    <row r="100" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="242.25" x14ac:dyDescent="0.45">
-      <c r="A101" s="5" t="s">
+    <row r="101" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="3" t="s">
         <v>309</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10926,17 +10918,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="80.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="80.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>310</v>
       </c>
@@ -10953,1686 +10945,1686 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>312</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>313</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>316</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>318</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>319</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>320</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>321</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>323</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>324</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>325</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>326</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>327</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>328</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>329</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>330</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>331</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>332</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>333</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>334</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>335</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>336</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>337</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>338</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>339</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>340</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>341</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>342</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>343</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>344</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>345</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>346</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>347</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>348</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>349</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>350</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>114</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>351</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>352</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>126</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>353</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>354</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>133</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>355</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>136</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>137</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>356</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>141</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>357</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>144</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>358</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>146</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>147</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>148</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>359</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>360</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>361</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>363</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>364</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>365</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>366</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>368</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>369</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>370</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
         <v>371</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>373</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>374</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>375</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>376</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>378</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>150</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>151</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>152</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>379</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>155</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>156</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>380</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>158</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>159</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>160</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>381</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>162</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>163</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>164</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>382</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>166</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>167</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>168</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>383</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>171</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" t="s">
         <v>172</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>384</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>174</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>175</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>176</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>385</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>178</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>179</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>180</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>386</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>182</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>183</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>184</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>387</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>186</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>101</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>187</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>388</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>175</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>176</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>389</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>189</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>190</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" t="s">
         <v>191</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>390</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>391</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>392</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" t="s">
         <v>393</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>395</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>396</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>397</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>398</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>400</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>401</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>397</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>402</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>404</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>201</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>202</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>203</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>405</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>205</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>206</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>207</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>406</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>209</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>179</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" t="s">
         <v>210</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>407</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>212</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>213</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
         <v>214</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>408</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>409</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>121</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" t="s">
         <v>410</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>412</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>413</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>414</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" t="s">
         <v>415</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>417</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>216</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>217</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" t="s">
         <v>218</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>418</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>220</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" t="s">
         <v>221</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" t="s">
         <v>222</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>419</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>420</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" t="s">
         <v>421</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" t="s">
         <v>422</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>424</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>425</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>421</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" t="s">
         <v>426</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>428</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>429</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>430</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" t="s">
         <v>431</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>433</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>224</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" t="s">
         <v>28</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" t="s">
         <v>225</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>434</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>227</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>228</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" t="s">
         <v>229</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>435</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>231</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>232</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" t="s">
         <v>233</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>436</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>235</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" t="s">
         <v>236</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" t="s">
         <v>237</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>437</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>239</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" t="s">
         <v>240</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" t="s">
         <v>241</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>438</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>243</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" t="s">
         <v>244</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" t="s">
         <v>245</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A79" s="1" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>439</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>247</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" t="s">
         <v>248</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" t="s">
         <v>249</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>440</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>441</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" t="s">
         <v>442</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" t="s">
         <v>443</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>445</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>251</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" t="s">
         <v>252</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" t="s">
         <v>253</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>446</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>255</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" t="s">
         <v>213</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" t="s">
         <v>256</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="1" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>447</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>258</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" t="s">
         <v>248</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" t="s">
         <v>259</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>448</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>261</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" t="s">
         <v>262</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" t="s">
         <v>263</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A85" s="1" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>449</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>265</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" t="s">
         <v>266</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" t="s">
         <v>267</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86" s="1" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>450</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
         <v>269</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" t="s">
         <v>270</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" t="s">
         <v>271</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A87" s="1" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>451</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="s">
         <v>273</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" t="s">
         <v>274</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" t="s">
         <v>275</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A88" s="1" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>452</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="s">
         <v>453</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" t="s">
         <v>454</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" t="s">
         <v>455</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>457</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s">
         <v>458</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" t="s">
         <v>459</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" t="s">
         <v>460</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A90" s="1" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>462</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" t="s">
         <v>463</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" t="s">
         <v>464</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" t="s">
         <v>465</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A91" s="1" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>467</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s">
         <v>277</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" t="s">
         <v>179</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" t="s">
         <v>278</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>468</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
         <v>469</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" t="s">
         <v>470</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" t="s">
         <v>471</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A93" s="1" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>473</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
         <v>474</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" t="s">
         <v>475</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" t="s">
         <v>476</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>478</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>280</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" t="s">
         <v>281</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" t="s">
         <v>282</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>479</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
         <v>284</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" t="s">
         <v>285</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" t="s">
         <v>286</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A96" s="1" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>480</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="s">
         <v>288</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" t="s">
         <v>289</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" t="s">
         <v>290</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A97" s="1" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>481</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
         <v>292</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" t="s">
         <v>293</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" t="s">
         <v>294</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A98" s="1" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>482</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" t="s">
         <v>300</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" t="s">
         <v>297</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" t="s">
         <v>301</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A99" s="1" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>483</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="s">
         <v>484</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" t="s">
         <v>485</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" t="s">
         <v>486</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A100" s="1" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>488</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" t="s">
         <v>303</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" t="s">
         <v>304</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" t="s">
         <v>305</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A101" s="1" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>489</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" t="s">
         <v>303</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" t="s">
         <v>307</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" t="s">
         <v>308</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" t="s">
         <v>309</v>
       </c>
     </row>
@@ -12650,17 +12642,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="80.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="80.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>310</v>
       </c>
@@ -12677,1091 +12669,1091 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>492</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>493</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>494</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>495</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>496</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>497</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>498</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>499</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>500</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>501</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>502</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>503</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>504</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>505</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>506</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>507</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>509</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>510</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>511</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>512</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>513</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>514</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>515</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>516</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>517</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>518</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>519</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>132</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>133</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>520</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>521</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>144</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>522</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>148</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>523</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>152</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>524</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>154</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>156</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>525</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>159</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>526</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>170</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>171</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>172</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>527</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>178</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>179</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>180</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>528</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>189</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>190</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>191</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>529</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>530</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>470</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>531</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>533</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>201</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>202</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>203</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>534</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>205</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>206</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>207</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>535</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>209</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>179</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>210</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>536</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>212</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>213</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>214</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>537</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>216</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>217</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>218</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>538</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>409</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>410</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>539</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>220</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>221</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>222</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>540</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>224</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>225</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>541</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>227</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>228</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
         <v>229</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>542</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>231</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>232</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>233</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>543</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>235</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>236</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>237</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>544</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>239</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>240</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>241</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>545</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>243</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>244</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>245</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>546</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>247</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>248</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>249</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>547</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>251</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>252</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>253</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>548</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>255</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>213</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" t="s">
         <v>256</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>549</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>248</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>259</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>550</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>261</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>262</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>263</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>551</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>265</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>266</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>267</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>552</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>269</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>270</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>271</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>553</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>273</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>274</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>275</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>554</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>277</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>179</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" t="s">
         <v>278</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>555</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>556</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>557</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" t="s">
         <v>558</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>560</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>280</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>281</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>282</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>561</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>284</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>285</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>286</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>562</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>288</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>289</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>290</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>563</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>292</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>293</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>294</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>564</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>300</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>297</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" t="s">
         <v>301</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>565</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>303</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>304</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
         <v>305</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>566</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>303</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>307</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" t="s">
         <v>308</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" t="s">
         <v>309</v>
       </c>
     </row>
@@ -13781,17 +13773,17 @@
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="80.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="80.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>310</v>
       </c>
@@ -13808,1856 +13800,1856 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>568</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>569</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>570</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>571</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>573</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>574</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>575</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>576</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>578</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>579</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>194</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>580</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>581</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>582</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>583</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>585</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>586</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>587</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>588</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>590</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>591</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>592</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>593</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>595</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>596</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>597</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>598</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>600</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>601</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>602</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>603</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>605</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>606</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>607</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>608</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>609</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>611</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>612</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>613</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>614</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>616</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>617</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>618</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>619</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>621</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>622</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>623</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>624</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>626</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>627</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>628</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>629</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>631</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>632</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>633</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>634</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>636</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>637</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>638</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>640</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>641</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>642</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>643</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>645</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>646</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>647</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>648</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>649</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>651</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>652</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>653</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>654</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>656</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>657</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>658</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>659</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>661</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>662</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>658</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>663</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>665</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>666</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>642</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>667</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>669</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>670</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>671</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>672</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>674</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>675</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>676</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>677</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>679</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>680</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>681</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>682</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>684</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>685</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>686</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>687</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>689</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>690</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>691</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>692</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>693</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>695</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>696</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>697</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>698</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>700</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>647</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>648</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>701</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>703</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>704</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>705</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>706</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>708</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>709</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>710</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>712</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>713</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>714</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>716</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>717</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>718</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>720</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>721</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>722</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>723</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>725</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>726</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>727</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>728</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>730</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>731</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>732</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>733</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>735</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>736</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>737</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>738</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>740</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>741</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>742</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>743</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>745</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>746</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>747</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>748</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>750</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>751</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>752</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
         <v>753</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>755</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>205</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>756</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>757</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>759</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>760</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>761</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>762</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>764</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>765</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>766</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>767</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>769</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>770</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>771</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>772</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>774</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>158</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>159</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>160</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>775</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>170</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>171</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>172</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>776</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>777</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>778</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" t="s">
         <v>779</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>781</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>782</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>783</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>784</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>786</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>787</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>470</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>788</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>790</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>791</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>792</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>793</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>795</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>796</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>797</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>798</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>800</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>201</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>202</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>203</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>801</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>802</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>803</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" t="s">
         <v>804</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>806</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>807</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>808</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" t="s">
         <v>809</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>811</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>205</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>206</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>207</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>812</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>212</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>213</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>214</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>813</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>814</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>392</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>815</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>817</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>818</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>819</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>820</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>822</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>823</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>824</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" t="s">
         <v>825</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>827</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>828</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>829</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
         <v>830</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>832</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>833</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>834</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" t="s">
         <v>835</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>837</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>838</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>839</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" t="s">
         <v>840</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>842</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>843</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>844</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" t="s">
         <v>845</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>847</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>848</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" t="s">
         <v>834</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" t="s">
         <v>849</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>851</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>852</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" t="s">
         <v>808</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" t="s">
         <v>853</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>855</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>856</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>392</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" t="s">
         <v>857</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>859</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>860</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>834</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" t="s">
         <v>861</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>863</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>864</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" t="s">
         <v>865</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" t="s">
         <v>866</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>868</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>205</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>865</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" t="s">
         <v>869</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>871</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>872</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>873</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" t="s">
         <v>874</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>876</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>227</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" t="s">
         <v>228</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" t="s">
         <v>229</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>877</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>878</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" t="s">
         <v>879</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" t="s">
         <v>880</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>882</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>883</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" t="s">
         <v>834</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" t="s">
         <v>884</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A79" s="1" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>886</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>887</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" t="s">
         <v>888</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" t="s">
         <v>889</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>891</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>193</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" t="s">
         <v>892</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" t="s">
         <v>893</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>895</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>205</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" t="s">
         <v>896</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" t="s">
         <v>897</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>899</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>900</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" t="s">
         <v>901</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" t="s">
         <v>902</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="1" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>904</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>905</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" t="s">
         <v>906</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" t="s">
         <v>907</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>909</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>280</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" t="s">
         <v>910</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" t="s">
         <v>911</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A85" s="1" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>913</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>914</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" t="s">
         <v>915</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" t="s">
         <v>916</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86" s="1" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>918</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
         <v>255</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" t="s">
         <v>213</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" t="s">
         <v>256</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A87" s="1" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>919</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="s">
         <v>205</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" t="s">
         <v>920</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" t="s">
         <v>921</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A88" s="1" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>923</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="s">
         <v>924</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" t="s">
         <v>771</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" t="s">
         <v>925</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>927</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s">
         <v>928</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" t="s">
         <v>470</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" t="s">
         <v>929</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A90" s="1" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>931</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" t="s">
         <v>932</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" t="s">
         <v>933</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" t="s">
         <v>934</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A91" s="1" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>936</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s">
         <v>937</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" t="s">
         <v>938</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" t="s">
         <v>939</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>941</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
         <v>280</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" t="s">
         <v>281</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" t="s">
         <v>282</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A93" s="1" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>942</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
         <v>943</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" t="s">
         <v>944</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" t="s">
         <v>945</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>947</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>948</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" t="s">
         <v>949</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" t="s">
         <v>950</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>952</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
         <v>953</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" t="s">
         <v>392</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" t="s">
         <v>954</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A96" s="1" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>956</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="s">
         <v>957</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" t="s">
         <v>958</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" t="s">
         <v>959</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A97" s="1" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>961</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
         <v>962</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" t="s">
         <v>963</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" t="s">
         <v>964</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A98" s="1" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>966</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" t="s">
         <v>967</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" t="s">
         <v>968</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" t="s">
         <v>969</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A99" s="1" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>971</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="s">
         <v>972</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" t="s">
         <v>973</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" t="s">
         <v>974</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A100" s="1" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>976</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" t="s">
         <v>292</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" t="s">
         <v>293</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" t="s">
         <v>294</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A101" s="1" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>977</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" t="s">
         <v>296</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" t="s">
         <v>297</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" t="s">
         <v>298</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A102" s="1" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>978</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" t="s">
         <v>979</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" t="s">
         <v>834</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" t="s">
         <v>980</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A103" s="1" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>982</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" t="s">
         <v>983</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" t="s">
         <v>984</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" t="s">
         <v>985</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A104" s="1" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>987</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" t="s">
         <v>751</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" t="s">
         <v>988</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" t="s">
         <v>989</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A105" s="1" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>991</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" t="s">
         <v>992</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" t="s">
         <v>993</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" t="s">
         <v>994</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A106" s="1" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>996</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" t="s">
         <v>997</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" t="s">
         <v>998</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" t="s">
         <v>999</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A107" s="1" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>1001</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" t="s">
         <v>205</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" t="s">
         <v>470</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" t="s">
         <v>1002</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A108" s="1" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>1004</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" t="s">
         <v>1005</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" t="s">
         <v>1006</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" t="s">
         <v>1007</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A109" s="1" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>1009</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" t="s">
         <v>1010</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" t="s">
         <v>1011</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" t="s">
         <v>1012</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A110" s="1" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>1014</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" t="s">
         <v>303</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" t="s">
         <v>307</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" t="s">
         <v>308</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E110" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A111" s="1" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>1015</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" t="s">
         <v>1016</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" t="s">
         <v>1017</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" t="s">
         <v>1018</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E111" t="s">
         <v>1019</v>
       </c>
     </row>
